--- a/storage/app/public/templates/zUCmuLwHj8P0d50lunRAYlQGESuUTwaECHs7hvEx.xlsx
+++ b/storage/app/public/templates/zUCmuLwHj8P0d50lunRAYlQGESuUTwaECHs7hvEx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11006"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muhlis/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FD14F6D-C394-4D41-8FB0-6D2FB0202DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DDEEB8-F041-49F8-BF1E-A1FAF834CBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6460" yWindow="2520" windowWidth="28040" windowHeight="17440" xr2:uid="{1E555836-EFED-1945-B4FE-CE4F9CE691E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1E555836-EFED-1945-B4FE-CE4F9CE691E3}"/>
   </bookViews>
   <sheets>
     <sheet name="barangs" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1959" uniqueCount="1347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="1348">
   <si>
     <t>barang</t>
   </si>
@@ -4061,6 +4061,9 @@
   </si>
   <si>
     <t>kode</t>
+  </si>
+  <si>
+    <t>saldo</t>
   </si>
 </sst>
 </file>
@@ -4922,19 +4925,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A41EC92-0581-E34A-85A4-291811C8B30F}">
-  <dimension ref="A1:C653"/>
+  <dimension ref="A1:D653"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="1" max="1" width="24.125" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1346</v>
       </c>
@@ -4944,8 +4947,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -4956,7 +4962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -4967,7 +4973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -4978,7 +4984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -4989,7 +4995,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -5000,7 +5006,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -5011,7 +5017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -5022,7 +5028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -5033,7 +5039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -5044,7 +5050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -5055,7 +5061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -5066,7 +5072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -5077,7 +5083,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -5088,7 +5094,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -5099,7 +5105,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -5110,7 +5116,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
@@ -5121,7 +5127,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -5132,7 +5138,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -5143,7 +5149,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
@@ -5154,7 +5160,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -5165,7 +5171,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>47</v>
       </c>
@@ -5176,7 +5182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -5187,7 +5193,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
@@ -5198,7 +5204,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -5209,7 +5215,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
@@ -5220,7 +5226,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>57</v>
       </c>
@@ -5231,7 +5237,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>59</v>
       </c>
@@ -5242,7 +5248,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -5253,7 +5259,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>63</v>
       </c>
@@ -5264,7 +5270,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>66</v>
       </c>
@@ -5275,7 +5281,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>68</v>
       </c>
@@ -5286,7 +5292,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>70</v>
       </c>
@@ -5297,7 +5303,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>72</v>
       </c>
@@ -5308,7 +5314,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>74</v>
       </c>
@@ -5319,7 +5325,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>76</v>
       </c>
@@ -5330,7 +5336,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>78</v>
       </c>
@@ -5341,7 +5347,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>80</v>
       </c>
@@ -5352,7 +5358,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>82</v>
       </c>
@@ -5363,7 +5369,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>85</v>
       </c>
@@ -5374,7 +5380,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>87</v>
       </c>
@@ -5385,7 +5391,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>89</v>
       </c>
@@ -5396,7 +5402,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>91</v>
       </c>
@@ -5407,7 +5413,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>93</v>
       </c>
@@ -5418,7 +5424,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>95</v>
       </c>
@@ -5429,7 +5435,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>97</v>
       </c>
@@ -5440,7 +5446,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>99</v>
       </c>
@@ -5451,7 +5457,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>102</v>
       </c>
@@ -5462,7 +5468,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>104</v>
       </c>
@@ -5473,7 +5479,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>106</v>
       </c>
@@ -5484,7 +5490,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>108</v>
       </c>
@@ -5495,7 +5501,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>110</v>
       </c>
@@ -5506,7 +5512,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>112</v>
       </c>
@@ -5517,7 +5523,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>114</v>
       </c>
@@ -5528,7 +5534,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>116</v>
       </c>
@@ -5539,7 +5545,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>118</v>
       </c>
@@ -5550,7 +5556,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>120</v>
       </c>
@@ -5561,7 +5567,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>123</v>
       </c>
@@ -5572,7 +5578,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>125</v>
       </c>
@@ -5583,7 +5589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>127</v>
       </c>
@@ -5594,7 +5600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>129</v>
       </c>
@@ -5605,7 +5611,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>131</v>
       </c>
@@ -5616,7 +5622,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>134</v>
       </c>
@@ -5627,7 +5633,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>136</v>
       </c>
@@ -5638,7 +5644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>138</v>
       </c>
@@ -5649,7 +5655,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>140</v>
       </c>
@@ -5660,7 +5666,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>142</v>
       </c>
@@ -5671,7 +5677,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>144</v>
       </c>
@@ -5682,7 +5688,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>147</v>
       </c>
@@ -5693,7 +5699,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>149</v>
       </c>
@@ -5704,7 +5710,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>151</v>
       </c>
@@ -5715,7 +5721,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>154</v>
       </c>
@@ -5726,7 +5732,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>157</v>
       </c>
@@ -5737,7 +5743,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>159</v>
       </c>
@@ -5748,7 +5754,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>161</v>
       </c>
@@ -5759,7 +5765,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>163</v>
       </c>
@@ -5770,7 +5776,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>164</v>
       </c>
@@ -5781,7 +5787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>166</v>
       </c>
@@ -5792,7 +5798,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>168</v>
       </c>
@@ -5803,7 +5809,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>170</v>
       </c>
@@ -5814,7 +5820,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>172</v>
       </c>
@@ -5825,7 +5831,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>174</v>
       </c>
@@ -5836,7 +5842,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>176</v>
       </c>
@@ -5847,7 +5853,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>179</v>
       </c>
@@ -5858,7 +5864,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>182</v>
       </c>
@@ -5869,7 +5875,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>184</v>
       </c>
@@ -5880,7 +5886,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>186</v>
       </c>
@@ -5891,7 +5897,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>188</v>
       </c>
@@ -5902,7 +5908,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>190</v>
       </c>
@@ -5913,7 +5919,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>192</v>
       </c>
@@ -5924,7 +5930,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>194</v>
       </c>
@@ -5935,7 +5941,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>196</v>
       </c>
@@ -5946,7 +5952,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>198</v>
       </c>
@@ -5957,7 +5963,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>200</v>
       </c>
@@ -5968,7 +5974,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>202</v>
       </c>
@@ -5979,7 +5985,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>205</v>
       </c>
@@ -5990,7 +5996,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>207</v>
       </c>
@@ -6001,7 +6007,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>209</v>
       </c>
@@ -6012,7 +6018,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>211</v>
       </c>
@@ -6023,7 +6029,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>213</v>
       </c>
@@ -6034,7 +6040,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>215</v>
       </c>
@@ -6045,7 +6051,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>217</v>
       </c>
@@ -6056,7 +6062,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>219</v>
       </c>
@@ -6067,7 +6073,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>221</v>
       </c>
@@ -6078,7 +6084,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>223</v>
       </c>
@@ -6089,7 +6095,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>225</v>
       </c>
@@ -6100,7 +6106,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>227</v>
       </c>
@@ -6111,7 +6117,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>229</v>
       </c>
@@ -6122,7 +6128,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>231</v>
       </c>
@@ -6133,7 +6139,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>233</v>
       </c>
@@ -6144,7 +6150,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>235</v>
       </c>
@@ -6155,7 +6161,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>237</v>
       </c>
@@ -6166,7 +6172,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>239</v>
       </c>
@@ -6177,7 +6183,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>241</v>
       </c>
@@ -6188,7 +6194,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>243</v>
       </c>
@@ -6199,7 +6205,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>245</v>
       </c>
@@ -6210,7 +6216,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>247</v>
       </c>
@@ -6221,7 +6227,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>249</v>
       </c>
@@ -6232,7 +6238,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>251</v>
       </c>
@@ -6243,7 +6249,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>252</v>
       </c>
@@ -6254,7 +6260,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>254</v>
       </c>
@@ -6265,7 +6271,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>256</v>
       </c>
@@ -6276,7 +6282,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>257</v>
       </c>
@@ -6287,7 +6293,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>259</v>
       </c>
@@ -6298,7 +6304,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>261</v>
       </c>
@@ -6309,7 +6315,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>263</v>
       </c>
@@ -6320,7 +6326,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>265</v>
       </c>
@@ -6331,7 +6337,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>267</v>
       </c>
@@ -6342,7 +6348,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>269</v>
       </c>
@@ -6353,7 +6359,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>271</v>
       </c>
@@ -6364,7 +6370,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>274</v>
       </c>
@@ -6375,7 +6381,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>277</v>
       </c>
@@ -6386,7 +6392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>279</v>
       </c>
@@ -6397,7 +6403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>281</v>
       </c>
@@ -6408,7 +6414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>283</v>
       </c>
@@ -6419,7 +6425,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>285</v>
       </c>
@@ -6430,7 +6436,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>288</v>
       </c>
@@ -6441,7 +6447,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>290</v>
       </c>
@@ -6452,7 +6458,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>291</v>
       </c>
@@ -6463,7 +6469,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>293</v>
       </c>
@@ -6474,7 +6480,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>294</v>
       </c>
@@ -6485,7 +6491,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>297</v>
       </c>
@@ -6496,7 +6502,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>299</v>
       </c>
@@ -6507,7 +6513,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>302</v>
       </c>
@@ -6518,7 +6524,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>305</v>
       </c>
@@ -6529,7 +6535,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>307</v>
       </c>
@@ -6540,7 +6546,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>308</v>
       </c>
@@ -6551,7 +6557,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>310</v>
       </c>
@@ -6562,7 +6568,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>312</v>
       </c>
@@ -6573,7 +6579,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>314</v>
       </c>
@@ -6584,7 +6590,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>316</v>
       </c>
@@ -6595,7 +6601,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>318</v>
       </c>
@@ -6606,7 +6612,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>320</v>
       </c>
@@ -6617,7 +6623,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>322</v>
       </c>
@@ -6628,7 +6634,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>324</v>
       </c>
@@ -6639,7 +6645,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>326</v>
       </c>
@@ -6650,7 +6656,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>328</v>
       </c>
@@ -6661,7 +6667,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>330</v>
       </c>
@@ -6672,7 +6678,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>332</v>
       </c>
@@ -6683,7 +6689,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>334</v>
       </c>
@@ -6694,7 +6700,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>335</v>
       </c>
@@ -6705,7 +6711,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>337</v>
       </c>
@@ -6716,7 +6722,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>339</v>
       </c>
@@ -6727,7 +6733,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>341</v>
       </c>
@@ -6738,7 +6744,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>343</v>
       </c>
@@ -6749,7 +6755,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>345</v>
       </c>
@@ -6760,7 +6766,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>347</v>
       </c>
@@ -6771,7 +6777,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>349</v>
       </c>
@@ -6782,7 +6788,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>351</v>
       </c>
@@ -6793,7 +6799,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>353</v>
       </c>
@@ -6804,7 +6810,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>355</v>
       </c>
@@ -6815,7 +6821,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>357</v>
       </c>
@@ -6826,7 +6832,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>359</v>
       </c>
@@ -6837,7 +6843,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>361</v>
       </c>
@@ -6848,7 +6854,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>363</v>
       </c>
@@ -6859,7 +6865,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>365</v>
       </c>
@@ -6870,7 +6876,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>367</v>
       </c>
@@ -6881,7 +6887,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>369</v>
       </c>
@@ -6892,7 +6898,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>371</v>
       </c>
@@ -6903,7 +6909,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>373</v>
       </c>
@@ -6914,7 +6920,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>375</v>
       </c>
@@ -6925,7 +6931,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>377</v>
       </c>
@@ -6936,7 +6942,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>380</v>
       </c>
@@ -6947,7 +6953,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>381</v>
       </c>
@@ -6958,7 +6964,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>383</v>
       </c>
@@ -6969,7 +6975,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>386</v>
       </c>
@@ -6980,7 +6986,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>388</v>
       </c>
@@ -6991,7 +6997,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>390</v>
       </c>
@@ -7002,7 +7008,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>392</v>
       </c>
@@ -7013,7 +7019,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>394</v>
       </c>
@@ -7024,7 +7030,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>396</v>
       </c>
@@ -7035,7 +7041,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>398</v>
       </c>
@@ -7046,7 +7052,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>400</v>
       </c>
@@ -7057,7 +7063,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>402</v>
       </c>
@@ -7068,7 +7074,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>404</v>
       </c>
@@ -7079,7 +7085,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>406</v>
       </c>
@@ -7090,7 +7096,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>408</v>
       </c>
@@ -7101,7 +7107,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>410</v>
       </c>
@@ -7112,7 +7118,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>412</v>
       </c>
@@ -7123,7 +7129,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>414</v>
       </c>
@@ -7134,7 +7140,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>416</v>
       </c>
@@ -7145,7 +7151,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>418</v>
       </c>
@@ -7156,7 +7162,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>420</v>
       </c>
@@ -7167,7 +7173,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>422</v>
       </c>
@@ -7178,7 +7184,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>424</v>
       </c>
@@ -7189,7 +7195,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>426</v>
       </c>
@@ -7200,7 +7206,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>428</v>
       </c>
@@ -7211,7 +7217,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>431</v>
       </c>
@@ -7222,7 +7228,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>433</v>
       </c>
@@ -7233,7 +7239,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>435</v>
       </c>
@@ -7244,7 +7250,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>437</v>
       </c>
@@ -7255,7 +7261,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>440</v>
       </c>
@@ -7266,7 +7272,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>442</v>
       </c>
@@ -7277,7 +7283,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>444</v>
       </c>
@@ -7288,7 +7294,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>446</v>
       </c>
@@ -7299,7 +7305,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>448</v>
       </c>
@@ -7310,7 +7316,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>450</v>
       </c>
@@ -7321,7 +7327,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>452</v>
       </c>
@@ -7332,7 +7338,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>454</v>
       </c>
@@ -7343,7 +7349,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>457</v>
       </c>
@@ -7354,7 +7360,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>459</v>
       </c>
@@ -7365,7 +7371,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>462</v>
       </c>
@@ -7376,7 +7382,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>464</v>
       </c>
@@ -7387,7 +7393,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>466</v>
       </c>
@@ -7398,7 +7404,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>469</v>
       </c>
@@ -7409,7 +7415,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>471</v>
       </c>
@@ -7420,7 +7426,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>473</v>
       </c>
@@ -7431,7 +7437,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>476</v>
       </c>
@@ -7442,7 +7448,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>478</v>
       </c>
@@ -7453,7 +7459,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>480</v>
       </c>
@@ -7464,7 +7470,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>482</v>
       </c>
@@ -7475,7 +7481,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>484</v>
       </c>
@@ -7486,7 +7492,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>486</v>
       </c>
@@ -7497,7 +7503,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>488</v>
       </c>
@@ -7508,7 +7514,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>490</v>
       </c>
@@ -7519,7 +7525,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>492</v>
       </c>
@@ -7530,7 +7536,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>494</v>
       </c>
@@ -7541,7 +7547,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>496</v>
       </c>
@@ -7552,7 +7558,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>498</v>
       </c>
@@ -7563,7 +7569,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>500</v>
       </c>
@@ -7574,7 +7580,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>502</v>
       </c>
@@ -7585,7 +7591,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>504</v>
       </c>
@@ -7596,7 +7602,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>506</v>
       </c>
@@ -7607,7 +7613,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>508</v>
       </c>
@@ -7618,7 +7624,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>510</v>
       </c>
@@ -7629,7 +7635,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>512</v>
       </c>
@@ -7640,7 +7646,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>514</v>
       </c>
@@ -7651,7 +7657,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>516</v>
       </c>
@@ -7662,7 +7668,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>518</v>
       </c>
@@ -7673,7 +7679,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>520</v>
       </c>
@@ -7684,7 +7690,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>522</v>
       </c>
@@ -7695,7 +7701,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>524</v>
       </c>
@@ -7706,7 +7712,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>526</v>
       </c>
@@ -7717,7 +7723,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>528</v>
       </c>
@@ -7728,7 +7734,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>530</v>
       </c>
@@ -7739,7 +7745,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>532</v>
       </c>
@@ -7750,7 +7756,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>534</v>
       </c>
@@ -7761,7 +7767,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>536</v>
       </c>
@@ -7772,7 +7778,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>538</v>
       </c>
@@ -7783,7 +7789,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>540</v>
       </c>
@@ -7794,7 +7800,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>542</v>
       </c>
@@ -7805,7 +7811,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>545</v>
       </c>
@@ -7816,7 +7822,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>547</v>
       </c>
@@ -7827,7 +7833,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>549</v>
       </c>
@@ -7838,7 +7844,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>551</v>
       </c>
@@ -7849,7 +7855,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>553</v>
       </c>
@@ -7860,7 +7866,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>555</v>
       </c>
@@ -7871,7 +7877,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>557</v>
       </c>
@@ -7882,7 +7888,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>559</v>
       </c>
@@ -7893,7 +7899,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>561</v>
       </c>
@@ -7904,7 +7910,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>563</v>
       </c>
@@ -7915,7 +7921,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>565</v>
       </c>
@@ -7926,7 +7932,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>567</v>
       </c>
@@ -7937,7 +7943,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>569</v>
       </c>
@@ -7948,7 +7954,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>571</v>
       </c>
@@ -7959,7 +7965,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>573</v>
       </c>
@@ -7970,7 +7976,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>575</v>
       </c>
@@ -7981,7 +7987,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>577</v>
       </c>
@@ -7992,7 +7998,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>579</v>
       </c>
@@ -8003,7 +8009,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>581</v>
       </c>
@@ -8014,7 +8020,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>584</v>
       </c>
@@ -8025,7 +8031,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>586</v>
       </c>
@@ -8036,7 +8042,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>588</v>
       </c>
@@ -8047,7 +8053,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>590</v>
       </c>
@@ -8058,7 +8064,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>592</v>
       </c>
@@ -8069,7 +8075,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>594</v>
       </c>
@@ -8080,7 +8086,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>596</v>
       </c>
@@ -8091,7 +8097,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>598</v>
       </c>
@@ -8102,7 +8108,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>601</v>
       </c>
@@ -8113,7 +8119,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>604</v>
       </c>
@@ -8124,7 +8130,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>606</v>
       </c>
@@ -8135,7 +8141,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>608</v>
       </c>
@@ -8146,7 +8152,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>610</v>
       </c>
@@ -8157,7 +8163,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>612</v>
       </c>
@@ -8168,7 +8174,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>614</v>
       </c>
@@ -8179,7 +8185,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>616</v>
       </c>
@@ -8190,7 +8196,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>618</v>
       </c>
@@ -8201,7 +8207,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>621</v>
       </c>
@@ -8212,7 +8218,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>623</v>
       </c>
@@ -8223,7 +8229,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>625</v>
       </c>
@@ -8234,7 +8240,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>627</v>
       </c>
@@ -8245,7 +8251,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>629</v>
       </c>
@@ -8256,7 +8262,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>631</v>
       </c>
@@ -8267,7 +8273,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>633</v>
       </c>
@@ -8278,7 +8284,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>635</v>
       </c>
@@ -8289,7 +8295,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>637</v>
       </c>
@@ -8300,7 +8306,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>639</v>
       </c>
@@ -8311,7 +8317,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>641</v>
       </c>
@@ -8322,7 +8328,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>643</v>
       </c>
@@ -8333,7 +8339,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>645</v>
       </c>
@@ -8344,7 +8350,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>647</v>
       </c>
@@ -8355,7 +8361,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>649</v>
       </c>
@@ -8366,7 +8372,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>651</v>
       </c>
@@ -8377,7 +8383,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>653</v>
       </c>
@@ -8388,7 +8394,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>655</v>
       </c>
@@ -8399,7 +8405,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>658</v>
       </c>
@@ -8410,7 +8416,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>660</v>
       </c>
@@ -8421,7 +8427,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>662</v>
       </c>
@@ -8432,7 +8438,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>664</v>
       </c>
@@ -8443,7 +8449,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>666</v>
       </c>
@@ -8454,7 +8460,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>668</v>
       </c>
@@ -8465,7 +8471,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>670</v>
       </c>
@@ -8476,7 +8482,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>672</v>
       </c>
@@ -8487,7 +8493,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>674</v>
       </c>
@@ -8498,7 +8504,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>676</v>
       </c>
@@ -8509,7 +8515,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>678</v>
       </c>
@@ -8520,7 +8526,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>680</v>
       </c>
@@ -8531,7 +8537,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>682</v>
       </c>
@@ -8542,7 +8548,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>684</v>
       </c>
@@ -8553,7 +8559,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>686</v>
       </c>
@@ -8564,7 +8570,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>688</v>
       </c>
@@ -8575,7 +8581,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>690</v>
       </c>
@@ -8586,7 +8592,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>692</v>
       </c>
@@ -8597,7 +8603,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>694</v>
       </c>
@@ -8608,7 +8614,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>696</v>
       </c>
@@ -8619,7 +8625,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>698</v>
       </c>
@@ -8630,7 +8636,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>700</v>
       </c>
@@ -8641,7 +8647,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>702</v>
       </c>
@@ -8652,7 +8658,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>704</v>
       </c>
@@ -8663,7 +8669,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>706</v>
       </c>
@@ -8674,7 +8680,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>709</v>
       </c>
@@ -8685,7 +8691,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>711</v>
       </c>
@@ -8696,7 +8702,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>713</v>
       </c>
@@ -8707,7 +8713,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>715</v>
       </c>
@@ -8718,7 +8724,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>716</v>
       </c>
@@ -8729,7 +8735,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>718</v>
       </c>
@@ -8740,7 +8746,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>721</v>
       </c>
@@ -8751,7 +8757,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>723</v>
       </c>
@@ -8762,7 +8768,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>725</v>
       </c>
@@ -8773,7 +8779,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>727</v>
       </c>
@@ -8784,7 +8790,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>730</v>
       </c>
@@ -8795,7 +8801,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>732</v>
       </c>
@@ -8806,7 +8812,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>734</v>
       </c>
@@ -8817,7 +8823,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>736</v>
       </c>
@@ -8828,7 +8834,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>738</v>
       </c>
@@ -8839,7 +8845,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>740</v>
       </c>
@@ -8850,7 +8856,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>742</v>
       </c>
@@ -8861,7 +8867,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>744</v>
       </c>
@@ -8872,7 +8878,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>746</v>
       </c>
@@ -8883,7 +8889,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>748</v>
       </c>
@@ -8894,7 +8900,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>750</v>
       </c>
@@ -8905,7 +8911,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>752</v>
       </c>
@@ -8916,7 +8922,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>754</v>
       </c>
@@ -8927,7 +8933,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>756</v>
       </c>
@@ -8938,7 +8944,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>758</v>
       </c>
@@ -8949,7 +8955,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>760</v>
       </c>
@@ -8960,7 +8966,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>762</v>
       </c>
@@ -8971,7 +8977,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>764</v>
       </c>
@@ -8982,7 +8988,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>766</v>
       </c>
@@ -8993,7 +8999,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>768</v>
       </c>
@@ -9004,7 +9010,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>770</v>
       </c>
@@ -9015,7 +9021,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>772</v>
       </c>
@@ -9026,7 +9032,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>774</v>
       </c>
@@ -9037,7 +9043,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>776</v>
       </c>
@@ -9048,7 +9054,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>778</v>
       </c>
@@ -9059,7 +9065,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>779</v>
       </c>
@@ -9070,7 +9076,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>781</v>
       </c>
@@ -9081,7 +9087,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>783</v>
       </c>
@@ -9092,7 +9098,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>785</v>
       </c>
@@ -9103,7 +9109,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>787</v>
       </c>
@@ -9114,7 +9120,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>789</v>
       </c>
@@ -9125,7 +9131,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>791</v>
       </c>
@@ -9136,7 +9142,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>793</v>
       </c>
@@ -9147,7 +9153,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>795</v>
       </c>
@@ -9158,7 +9164,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>797</v>
       </c>
@@ -9169,7 +9175,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>799</v>
       </c>
@@ -9180,7 +9186,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>801</v>
       </c>
@@ -9191,7 +9197,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>803</v>
       </c>
@@ -9202,7 +9208,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>805</v>
       </c>
@@ -9213,7 +9219,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>807</v>
       </c>
@@ -9224,7 +9230,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>809</v>
       </c>
@@ -9235,7 +9241,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>811</v>
       </c>
@@ -9246,7 +9252,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>813</v>
       </c>
@@ -9257,7 +9263,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>815</v>
       </c>
@@ -9268,7 +9274,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>817</v>
       </c>
@@ -9279,7 +9285,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>819</v>
       </c>
@@ -9290,7 +9296,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>821</v>
       </c>
@@ -9301,7 +9307,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>823</v>
       </c>
@@ -9312,7 +9318,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>825</v>
       </c>
@@ -9323,7 +9329,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>827</v>
       </c>
@@ -9334,7 +9340,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>829</v>
       </c>
@@ -9345,7 +9351,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>831</v>
       </c>
@@ -9356,7 +9362,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>833</v>
       </c>
@@ -9367,7 +9373,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>835</v>
       </c>
@@ -9378,7 +9384,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>837</v>
       </c>
@@ -9389,7 +9395,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>839</v>
       </c>
@@ -9400,7 +9406,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>841</v>
       </c>
@@ -9411,7 +9417,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>843</v>
       </c>
@@ -9422,7 +9428,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>845</v>
       </c>
@@ -9433,7 +9439,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>847</v>
       </c>
@@ -9444,7 +9450,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>849</v>
       </c>
@@ -9455,7 +9461,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>852</v>
       </c>
@@ -9466,7 +9472,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>854</v>
       </c>
@@ -9477,7 +9483,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>856</v>
       </c>
@@ -9488,7 +9494,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>858</v>
       </c>
@@ -9499,7 +9505,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>860</v>
       </c>
@@ -9510,7 +9516,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>862</v>
       </c>
@@ -9521,7 +9527,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>864</v>
       </c>
@@ -9532,7 +9538,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>866</v>
       </c>
@@ -9543,7 +9549,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>868</v>
       </c>
@@ -9554,7 +9560,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>870</v>
       </c>
@@ -9565,7 +9571,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>872</v>
       </c>
@@ -9576,7 +9582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>874</v>
       </c>
@@ -9587,7 +9593,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>876</v>
       </c>
@@ -9598,7 +9604,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>878</v>
       </c>
@@ -9609,7 +9615,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>880</v>
       </c>
@@ -9620,7 +9626,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>882</v>
       </c>
@@ -9631,7 +9637,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>884</v>
       </c>
@@ -9642,7 +9648,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>886</v>
       </c>
@@ -9653,7 +9659,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>888</v>
       </c>
@@ -9664,7 +9670,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>890</v>
       </c>
@@ -9675,7 +9681,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>892</v>
       </c>
@@ -9686,7 +9692,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>894</v>
       </c>
@@ -9697,7 +9703,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>896</v>
       </c>
@@ -9708,7 +9714,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>898</v>
       </c>
@@ -9719,7 +9725,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>900</v>
       </c>
@@ -9730,7 +9736,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>902</v>
       </c>
@@ -9741,7 +9747,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>904</v>
       </c>
@@ -9752,7 +9758,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>907</v>
       </c>
@@ -9763,7 +9769,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>909</v>
       </c>
@@ -9774,7 +9780,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>911</v>
       </c>
@@ -9785,7 +9791,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>913</v>
       </c>
@@ -9796,7 +9802,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>915</v>
       </c>
@@ -9807,7 +9813,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>917</v>
       </c>
@@ -9818,7 +9824,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>919</v>
       </c>
@@ -9829,7 +9835,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>922</v>
       </c>
@@ -9840,7 +9846,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>924</v>
       </c>
@@ -9851,7 +9857,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>926</v>
       </c>
@@ -9862,7 +9868,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>928</v>
       </c>
@@ -9873,7 +9879,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>930</v>
       </c>
@@ -9884,7 +9890,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>932</v>
       </c>
@@ -9895,7 +9901,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>935</v>
       </c>
@@ -9906,7 +9912,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>937</v>
       </c>
@@ -9917,7 +9923,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>939</v>
       </c>
@@ -9928,7 +9934,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>941</v>
       </c>
@@ -9939,7 +9945,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>943</v>
       </c>
@@ -9950,7 +9956,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>945</v>
       </c>
@@ -9961,7 +9967,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>947</v>
       </c>
@@ -9972,7 +9978,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>949</v>
       </c>
@@ -9983,7 +9989,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>951</v>
       </c>
@@ -9994,7 +10000,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>954</v>
       </c>
@@ -10005,7 +10011,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>957</v>
       </c>
@@ -10016,7 +10022,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>959</v>
       </c>
@@ -10027,7 +10033,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>961</v>
       </c>
@@ -10038,7 +10044,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>963</v>
       </c>
@@ -10049,7 +10055,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>965</v>
       </c>
@@ -10060,7 +10066,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>967</v>
       </c>
@@ -10071,7 +10077,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>969</v>
       </c>
@@ -10082,7 +10088,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>971</v>
       </c>
@@ -10093,7 +10099,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>973</v>
       </c>
@@ -10104,7 +10110,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>975</v>
       </c>
@@ -10115,7 +10121,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>978</v>
       </c>
@@ -10126,7 +10132,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>980</v>
       </c>
@@ -10137,7 +10143,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>982</v>
       </c>
@@ -10148,7 +10154,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>984</v>
       </c>
@@ -10159,7 +10165,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>986</v>
       </c>
@@ -10170,7 +10176,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>988</v>
       </c>
@@ -10181,7 +10187,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>990</v>
       </c>
@@ -10192,7 +10198,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>992</v>
       </c>
@@ -10203,7 +10209,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>994</v>
       </c>
@@ -10214,7 +10220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>996</v>
       </c>
@@ -10225,7 +10231,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>998</v>
       </c>
@@ -10236,7 +10242,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>1000</v>
       </c>
@@ -10247,7 +10253,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>1002</v>
       </c>
@@ -10258,7 +10264,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>1004</v>
       </c>
@@ -10269,7 +10275,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>1006</v>
       </c>
@@ -10280,7 +10286,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>1008</v>
       </c>
@@ -10291,7 +10297,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>1010</v>
       </c>
@@ -10302,7 +10308,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>1012</v>
       </c>
@@ -10313,7 +10319,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>1014</v>
       </c>
@@ -10324,7 +10330,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>1017</v>
       </c>
@@ -10335,7 +10341,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>1018</v>
       </c>
@@ -10346,7 +10352,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>1020</v>
       </c>
@@ -10357,7 +10363,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>1022</v>
       </c>
@@ -10368,7 +10374,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>1024</v>
       </c>
@@ -10379,7 +10385,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
         <v>1027</v>
       </c>
@@ -10390,7 +10396,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>1030</v>
       </c>
@@ -10401,7 +10407,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>1032</v>
       </c>
@@ -10412,7 +10418,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>1034</v>
       </c>
@@ -10423,7 +10429,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>1036</v>
       </c>
@@ -10434,7 +10440,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>1038</v>
       </c>
@@ -10445,7 +10451,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>1040</v>
       </c>
@@ -10456,7 +10462,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>1042</v>
       </c>
@@ -10467,7 +10473,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>1044</v>
       </c>
@@ -10478,7 +10484,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>1046</v>
       </c>
@@ -10489,7 +10495,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
         <v>1048</v>
       </c>
@@ -10500,7 +10506,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
         <v>1050</v>
       </c>
@@ -10511,7 +10517,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>1052</v>
       </c>
@@ -10522,7 +10528,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
         <v>1054</v>
       </c>
@@ -10533,7 +10539,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
         <v>1056</v>
       </c>
@@ -10544,7 +10550,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
         <v>1058</v>
       </c>
@@ -10555,7 +10561,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
         <v>1060</v>
       </c>
@@ -10566,7 +10572,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
         <v>1062</v>
       </c>
@@ -10577,7 +10583,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
         <v>1064</v>
       </c>
@@ -10588,7 +10594,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
         <v>1066</v>
       </c>
@@ -10599,7 +10605,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
         <v>1068</v>
       </c>
@@ -10610,7 +10616,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>1070</v>
       </c>
@@ -10621,7 +10627,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
         <v>1073</v>
       </c>
@@ -10632,7 +10638,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
         <v>1075</v>
       </c>
@@ -10643,7 +10649,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
         <v>1077</v>
       </c>
@@ -10654,7 +10660,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
         <v>1079</v>
       </c>
@@ -10665,7 +10671,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
         <v>1081</v>
       </c>
@@ -10676,7 +10682,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
         <v>1083</v>
       </c>
@@ -10687,7 +10693,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
         <v>1085</v>
       </c>
@@ -10698,7 +10704,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
         <v>1087</v>
       </c>
@@ -10709,7 +10715,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
         <v>1089</v>
       </c>
@@ -10720,7 +10726,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
         <v>1091</v>
       </c>
@@ -10731,7 +10737,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
         <v>1093</v>
       </c>
@@ -10742,7 +10748,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
         <v>1095</v>
       </c>
@@ -10753,7 +10759,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
         <v>1097</v>
       </c>
@@ -10764,7 +10770,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
         <v>1099</v>
       </c>
@@ -10775,7 +10781,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
         <v>1101</v>
       </c>
@@ -10786,7 +10792,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
         <v>1103</v>
       </c>
@@ -10797,7 +10803,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
         <v>1105</v>
       </c>
@@ -10808,7 +10814,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
         <v>1107</v>
       </c>
@@ -10819,7 +10825,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
         <v>1109</v>
       </c>
@@ -10830,7 +10836,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
         <v>1111</v>
       </c>
@@ -10841,7 +10847,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
         <v>1112</v>
       </c>
@@ -10852,7 +10858,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
         <v>1114</v>
       </c>
@@ -10863,7 +10869,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
         <v>1116</v>
       </c>
@@ -10874,7 +10880,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
         <v>1118</v>
       </c>
@@ -10885,7 +10891,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
         <v>1120</v>
       </c>
@@ -10896,7 +10902,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
         <v>1122</v>
       </c>
@@ -10907,7 +10913,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
         <v>1124</v>
       </c>
@@ -10918,7 +10924,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
         <v>1126</v>
       </c>
@@ -10929,7 +10935,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
         <v>1128</v>
       </c>
@@ -10940,7 +10946,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
         <v>1130</v>
       </c>
@@ -10951,7 +10957,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
         <v>1132</v>
       </c>
@@ -10962,7 +10968,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
         <v>1135</v>
       </c>
@@ -10973,7 +10979,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
         <v>1137</v>
       </c>
@@ -10984,7 +10990,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
         <v>1139</v>
       </c>
@@ -10995,7 +11001,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
         <v>1141</v>
       </c>
@@ -11006,7 +11012,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
         <v>1143</v>
       </c>
@@ -11017,7 +11023,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
         <v>1145</v>
       </c>
@@ -11028,7 +11034,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
         <v>1147</v>
       </c>
@@ -11039,7 +11045,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
         <v>1149</v>
       </c>
@@ -11050,7 +11056,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
         <v>1151</v>
       </c>
@@ -11061,7 +11067,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
         <v>1153</v>
       </c>
@@ -11072,7 +11078,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
         <v>1155</v>
       </c>
@@ -11083,7 +11089,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
         <v>1157</v>
       </c>
@@ -11094,7 +11100,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
         <v>1159</v>
       </c>
@@ -11105,7 +11111,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
         <v>1161</v>
       </c>
@@ -11116,7 +11122,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
         <v>1163</v>
       </c>
@@ -11127,7 +11133,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
         <v>1165</v>
       </c>
@@ -11138,7 +11144,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
         <v>1167</v>
       </c>
@@ -11149,7 +11155,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
         <v>1169</v>
       </c>
@@ -11160,7 +11166,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
         <v>1171</v>
       </c>
@@ -11171,7 +11177,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
         <v>1173</v>
       </c>
@@ -11182,7 +11188,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
         <v>1175</v>
       </c>
@@ -11193,7 +11199,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
         <v>1178</v>
       </c>
@@ -11204,7 +11210,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
         <v>1180</v>
       </c>
@@ -11215,7 +11221,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" s="1" t="s">
         <v>1182</v>
       </c>
@@ -11226,7 +11232,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
         <v>1184</v>
       </c>
@@ -11237,7 +11243,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="s">
         <v>1186</v>
       </c>
@@ -11248,7 +11254,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
         <v>1188</v>
       </c>
@@ -11259,7 +11265,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" s="1" t="s">
         <v>1190</v>
       </c>
@@ -11270,7 +11276,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
         <v>1192</v>
       </c>
@@ -11281,7 +11287,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" s="1" t="s">
         <v>1194</v>
       </c>
@@ -11292,7 +11298,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
         <v>1196</v>
       </c>
@@ -11303,7 +11309,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" s="1" t="s">
         <v>1198</v>
       </c>
@@ -11314,7 +11320,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
         <v>1200</v>
       </c>
@@ -11325,7 +11331,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
         <v>1202</v>
       </c>
@@ -11336,7 +11342,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
         <v>1204</v>
       </c>
@@ -11347,7 +11353,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
         <v>1206</v>
       </c>
@@ -11358,7 +11364,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
         <v>1208</v>
       </c>
@@ -11369,7 +11375,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
         <v>1210</v>
       </c>
@@ -11380,7 +11386,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
         <v>1212</v>
       </c>
@@ -11391,7 +11397,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" s="1" t="s">
         <v>1214</v>
       </c>
@@ -11402,7 +11408,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
         <v>1216</v>
       </c>
@@ -11413,7 +11419,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="s">
         <v>1218</v>
       </c>
@@ -11424,7 +11430,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="s">
         <v>1220</v>
       </c>
@@ -11435,7 +11441,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="s">
         <v>1222</v>
       </c>
@@ -11446,7 +11452,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" s="1" t="s">
         <v>1224</v>
       </c>
@@ -11457,7 +11463,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594" s="1" t="s">
         <v>1226</v>
       </c>
@@ -11468,7 +11474,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
         <v>1228</v>
       </c>
@@ -11479,7 +11485,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596" s="1" t="s">
         <v>1230</v>
       </c>
@@ -11490,7 +11496,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
         <v>1232</v>
       </c>
@@ -11501,7 +11507,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
         <v>1234</v>
       </c>
@@ -11512,7 +11518,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599" s="1" t="s">
         <v>1236</v>
       </c>
@@ -11523,7 +11529,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="s">
         <v>1238</v>
       </c>
@@ -11534,7 +11540,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
         <v>1240</v>
       </c>
@@ -11545,7 +11551,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="s">
         <v>1242</v>
       </c>
@@ -11556,7 +11562,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
         <v>1244</v>
       </c>
@@ -11567,7 +11573,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
         <v>1246</v>
       </c>
@@ -11578,7 +11584,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605" s="1" t="s">
         <v>1248</v>
       </c>
@@ -11589,7 +11595,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
         <v>1250</v>
       </c>
@@ -11600,7 +11606,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
         <v>1252</v>
       </c>
@@ -11611,7 +11617,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="s">
         <v>1254</v>
       </c>
@@ -11622,7 +11628,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609" s="1" t="s">
         <v>1256</v>
       </c>
@@ -11633,7 +11639,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610" s="1" t="s">
         <v>1258</v>
       </c>
@@ -11644,7 +11650,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" s="1" t="s">
         <v>1260</v>
       </c>
@@ -11655,7 +11661,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" s="1" t="s">
         <v>1262</v>
       </c>
@@ -11666,7 +11672,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" s="1" t="s">
         <v>1264</v>
       </c>
@@ -11677,7 +11683,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614" s="1" t="s">
         <v>1266</v>
       </c>
@@ -11688,7 +11694,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
         <v>1268</v>
       </c>
@@ -11699,7 +11705,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616" s="1" t="s">
         <v>1270</v>
       </c>
@@ -11710,7 +11716,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617" s="1" t="s">
         <v>1272</v>
       </c>
@@ -11721,7 +11727,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" s="1" t="s">
         <v>1274</v>
       </c>
@@ -11732,7 +11738,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" s="1" t="s">
         <v>1276</v>
       </c>
@@ -11743,7 +11749,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" s="1" t="s">
         <v>1278</v>
       </c>
@@ -11754,7 +11760,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="s">
         <v>1280</v>
       </c>
@@ -11765,7 +11771,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" s="1" t="s">
         <v>1282</v>
       </c>
@@ -11776,7 +11782,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="s">
         <v>1284</v>
       </c>
@@ -11787,7 +11793,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624" s="1" t="s">
         <v>1286</v>
       </c>
@@ -11798,7 +11804,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" s="1" t="s">
         <v>1288</v>
       </c>
@@ -11809,7 +11815,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" s="1" t="s">
         <v>1290</v>
       </c>
@@ -11820,7 +11826,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" s="1" t="s">
         <v>1292</v>
       </c>
@@ -11831,7 +11837,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" s="1" t="s">
         <v>1294</v>
       </c>
@@ -11842,7 +11848,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" s="1" t="s">
         <v>1296</v>
       </c>
@@ -11853,7 +11859,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" s="1" t="s">
         <v>1298</v>
       </c>
@@ -11864,7 +11870,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" s="1" t="s">
         <v>1300</v>
       </c>
@@ -11875,7 +11881,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" s="1" t="s">
         <v>1302</v>
       </c>
@@ -11886,7 +11892,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" s="1" t="s">
         <v>1304</v>
       </c>
@@ -11897,7 +11903,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" s="1" t="s">
         <v>1306</v>
       </c>
@@ -11908,7 +11914,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" s="1" t="s">
         <v>1308</v>
       </c>
@@ -11919,7 +11925,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" s="1" t="s">
         <v>1310</v>
       </c>
@@ -11930,7 +11936,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" s="1" t="s">
         <v>1312</v>
       </c>
@@ -11941,7 +11947,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" s="1" t="s">
         <v>1314</v>
       </c>
@@ -11952,7 +11958,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" s="1" t="s">
         <v>1316</v>
       </c>
@@ -11963,7 +11969,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" s="1" t="s">
         <v>1318</v>
       </c>
@@ -11974,7 +11980,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" s="1" t="s">
         <v>1320</v>
       </c>
@@ -11985,7 +11991,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" s="1" t="s">
         <v>1322</v>
       </c>
@@ -11996,7 +12002,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643" s="1" t="s">
         <v>1324</v>
       </c>
@@ -12007,7 +12013,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" s="1" t="s">
         <v>1326</v>
       </c>
@@ -12018,7 +12024,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" s="1" t="s">
         <v>1328</v>
       </c>
@@ -12029,7 +12035,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A646" s="1" t="s">
         <v>1330</v>
       </c>
@@ -12040,7 +12046,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" s="1" t="s">
         <v>1332</v>
       </c>
@@ -12051,7 +12057,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" s="1" t="s">
         <v>1334</v>
       </c>
@@ -12062,7 +12068,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" s="1" t="s">
         <v>1336</v>
       </c>
@@ -12073,7 +12079,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" s="1" t="s">
         <v>1338</v>
       </c>
@@ -12084,7 +12090,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" s="1" t="s">
         <v>1340</v>
       </c>
@@ -12095,7 +12101,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" s="1" t="s">
         <v>1342</v>
       </c>
@@ -12106,7 +12112,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" s="1" t="s">
         <v>1344</v>
       </c>
